--- a/pcmss.dev/pcmss/src/main/webapp/upload/contentRule/a62e330f32ee66d0d68a9b77583bb765.xlsx
+++ b/pcmss.dev/pcmss/src/main/webapp/upload/contentRule/a62e330f32ee66d0d68a9b77583bb765.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01-project\03-pucheng\git2\pcmss.dev\pcmss.dev\pcmss\src\main\webapp\upload\contentRule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LUO\gitHub\dfjxpcxm\pcmss.dev\pcmss.dev\pcmss\src\main\webapp\upload\contentRule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB70267-24B7-4D92-AC63-B0BAB618C9EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7345BD5-D956-46E7-B0BA-51B56CAB2C85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,29 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>phone_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>full_name</t>
+    <t>139xxxxxxxx</t>
+  </si>
+  <si>
+    <t>测试公司A</t>
+  </si>
+  <si>
+    <t>服务器B</t>
+  </si>
+  <si>
+    <t>100元</t>
+  </si>
+  <si>
+    <t>variable1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,6 +125,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -129,9 +144,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -475,59 +494,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>13526880677</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>13526880677</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>13526880678</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>789</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
